--- a/datasets/data.xlsx
+++ b/datasets/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\maths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\maths\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF91EA0-E48D-42B1-8D8C-416E49A53190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47CE6F-8EDE-48FD-BF8E-70023AE55A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{60315A4A-3910-4112-8345-B96CA8C9ACF2}"/>
   </bookViews>
@@ -6243,18 +6243,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB2600A-2F30-4924-BC03-405496762207}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B100" sqref="A1:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6262,47 +6262,47 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6318,39 +6318,39 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6366,39 +6366,39 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6414,23 +6414,23 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6462,39 +6462,39 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6526,23 +6526,23 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -6558,39 +6558,39 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6606,23 +6606,23 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6654,23 +6654,23 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -6702,39 +6702,39 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -6766,23 +6766,23 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -6798,39 +6798,39 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -6862,23 +6862,23 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -6894,23 +6894,23 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -6942,23 +6942,23 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -7006,23 +7006,23 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7038,15 +7038,15 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
